--- a/documents/spp_biogeo_data.xlsx
+++ b/documents/spp_biogeo_data.xlsx
@@ -10,7 +10,8 @@
   <sheets>
     <sheet name="spp_biogeo_macro" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="spp_biogeo_micro" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="spp_biogeo_micro_2" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="347">
   <si>
     <t xml:space="preserve">8(ABCDEFGH)</t>
   </si>
@@ -930,24 +931,54 @@
     <t xml:space="preserve">ABCDEFGH</t>
   </si>
   <si>
+    <t xml:space="preserve">A= Amazonia</t>
+  </si>
+  <si>
     <t xml:space="preserve">CBD</t>
   </si>
   <si>
+    <t xml:space="preserve">B= Cerrado</t>
+  </si>
+  <si>
     <t xml:space="preserve">BD</t>
   </si>
   <si>
+    <t xml:space="preserve">C=Caatinga</t>
+  </si>
+  <si>
     <t xml:space="preserve">BED</t>
   </si>
   <si>
+    <t xml:space="preserve">D= Campos rupestres</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">E=Mata Atlantica</t>
+  </si>
+  <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
+    <t xml:space="preserve">F=América Central</t>
+  </si>
+  <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
+    <t xml:space="preserve">G=USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H= Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I - Asia/ India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J = Australia</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
@@ -1021,6 +1052,12 @@
   </si>
   <si>
     <t xml:space="preserve">BCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (A B C D E F G H)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H= Extra-America</t>
   </si>
   <si>
     <t xml:space="preserve">sp</t>
@@ -1082,10 +1119,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1108,12 +1146,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1142,7 +1187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1175,7 +1220,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1189,22 +1274,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -6974,1872 +7043,1917 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B232"/>
+  <dimension ref="A1:E232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="40.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="7" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="21.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="18.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="7" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="n">
+      <c r="A1" s="9" t="n">
         <v>231</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="D2" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>306</v>
+      <c r="B11" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>308</v>
-      </c>
+      <c r="B12" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>309</v>
-      </c>
+      <c r="B13" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>306</v>
-      </c>
+      <c r="B14" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>306</v>
+      <c r="B15" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>306</v>
+      <c r="B16" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>306</v>
+      <c r="B17" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>306</v>
+      <c r="B18" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>306</v>
+      <c r="B19" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>307</v>
+      <c r="B20" s="10" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>306</v>
+      <c r="B21" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>303</v>
+      <c r="B22" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>309</v>
+      <c r="B23" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>310</v>
+      <c r="B24" s="10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>308</v>
+      <c r="B25" s="10" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>309</v>
+      <c r="B26" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>308</v>
+      <c r="B27" s="10" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>303</v>
+      <c r="B28" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>309</v>
+      <c r="B29" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>311</v>
+      <c r="B30" s="10" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>312</v>
+      <c r="B31" s="10" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>306</v>
+      <c r="B32" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>309</v>
+      <c r="B33" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>309</v>
+      <c r="B34" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>313</v>
+      <c r="B35" s="10" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>306</v>
+      <c r="B36" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>314</v>
+      <c r="B37" s="10" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>315</v>
+      <c r="B38" s="13" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="10" t="s">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>303</v>
+      <c r="B91" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>307</v>
+      <c r="B92" s="10" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>306</v>
+      <c r="B93" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>319</v>
+      <c r="B94" s="10" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>320</v>
+      <c r="B95" s="10" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>309</v>
+      <c r="B96" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>303</v>
+      <c r="B97" s="13" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>306</v>
+      <c r="B98" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>316</v>
+      <c r="B99" s="8" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>303</v>
+      <c r="B100" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>303</v>
+      <c r="B101" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>309</v>
+      <c r="B102" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>309</v>
+      <c r="B103" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>320</v>
+      <c r="B109" s="10" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>306</v>
+      <c r="B110" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>303</v>
+      <c r="B111" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>303</v>
+      <c r="B112" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>306</v>
+      <c r="B113" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B116" s="9" t="s">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117" s="9" t="s">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B120" s="9" t="s">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B198" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B122" s="9" t="s">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B231" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="8" t="s">
+      <c r="A232" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B232" s="9" t="s">
-        <v>332</v>
+      <c r="B232" s="10" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -8858,1871 +8972,3786 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E232"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="40.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="n">
+        <v>231</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="16.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>334</v>
+      <c r="A1" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>302</v>
+      <c r="B3" s="19" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>303</v>
+      <c r="B4" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>304</v>
+      <c r="B5" s="19" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>305</v>
+      <c r="B6" s="20" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>306</v>
+      <c r="B7" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>307</v>
+      <c r="B8" s="19" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>306</v>
+      <c r="B9" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>306</v>
+      <c r="B10" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>306</v>
+      <c r="B11" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>308</v>
+      <c r="B12" s="19" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>309</v>
+      <c r="B13" s="19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>306</v>
+      <c r="B14" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>306</v>
+      <c r="B15" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>306</v>
+      <c r="B16" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>306</v>
+      <c r="B17" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>306</v>
+      <c r="B18" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>306</v>
+      <c r="B19" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>307</v>
+      <c r="B20" s="19" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>306</v>
+      <c r="B21" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>303</v>
+      <c r="B22" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>309</v>
+      <c r="B23" s="19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>310</v>
+      <c r="B24" s="19" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>308</v>
+      <c r="B25" s="19" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>309</v>
+      <c r="B26" s="19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>308</v>
+      <c r="B27" s="19" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>303</v>
+      <c r="B28" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>309</v>
+      <c r="B29" s="19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>311</v>
+      <c r="B30" s="19" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>312</v>
+      <c r="B31" s="19" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>306</v>
+      <c r="B32" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>309</v>
+      <c r="B33" s="19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>309</v>
+      <c r="B34" s="19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>313</v>
+      <c r="B35" s="19" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>306</v>
+      <c r="B36" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>314</v>
+      <c r="B37" s="19" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>315</v>
+      <c r="B38" s="21" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="10" t="s">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>303</v>
+      <c r="B91" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>307</v>
+      <c r="B92" s="19" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>306</v>
+      <c r="B93" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>319</v>
+      <c r="B94" s="19" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>320</v>
+      <c r="B95" s="19" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>309</v>
+      <c r="B96" s="19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>303</v>
+      <c r="B97" s="21" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>306</v>
+      <c r="B98" s="21" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>316</v>
+      <c r="B99" s="20" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>303</v>
+      <c r="B100" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>303</v>
+      <c r="B101" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>309</v>
+      <c r="B102" s="19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>309</v>
+      <c r="B103" s="19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="19" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>320</v>
+      <c r="B109" s="19" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>306</v>
+      <c r="B110" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>303</v>
+      <c r="B111" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>303</v>
+      <c r="B112" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>306</v>
+      <c r="B113" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="19" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B116" s="9" t="s">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" s="19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117" s="9" t="s">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B178" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B179" s="19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B120" s="9" t="s">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B180" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B198" s="19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B122" s="9" t="s">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B205" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B207" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214" s="19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B223" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B224" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B227" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B228" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B231" s="19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="8" t="s">
+      <c r="A232" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B232" s="9" t="s">
-        <v>332</v>
+      <c r="B232" s="19" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
